--- a/src/test/java/testdata/testDataFile.xlsx
+++ b/src/test/java/testdata/testDataFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhefela\SideProject\Automation_Task\src\test\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhefela\SideProject\Test-Automation-Task\src\test\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB30838-28F6-416A-9901-93984A1E7311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DF476B-F3ED-489E-AE55-79311E42647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
